--- a/paper/Submissions/PlantCell/TPC revision/Supplemental Figures & Tables/SDS 4. Results of ANOVA domestication removal.xlsx
+++ b/paper/Submissions/PlantCell/TPC revision/Supplemental Figures & Tables/SDS 4. Results of ANOVA domestication removal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Supplemental Figures &amp; Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7866F8-8EBF-4298-A4BF-BE5C71FFDC14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F83657-D396-4A86-8C91-8A7A98F671B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" xr2:uid="{CA5FF66C-DA91-47A9-B9FE-F3B23BF53095}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>SS</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>% genetic variance </t>
+  </si>
+  <si>
+    <t>Mean lesion area:</t>
+  </si>
+  <si>
+    <t>Domesticated</t>
+  </si>
+  <si>
+    <t>Wild</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B8D32-53AC-4DAA-84FD-769AE3431432}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +479,7 @@
     <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,8 +521,14 @@
       <c r="F2" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,8 +547,14 @@
       <c r="F3" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -550,7 +574,7 @@
         <v>4.3199999999999997E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -570,7 +594,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -606,7 +630,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,7 +646,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -638,7 +662,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -654,7 +678,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,7 +694,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
